--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/Test2/variables/</t>
+          <t>http://purl.org/test2/variables/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/Test2/variables/</t>
+          <t>http://purl.org/test2/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,15 +840,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Minka</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -870,15 +870,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Diba</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -900,13 +900,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -930,13 +930,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -960,15 +960,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>Definition of terms (optionally properties)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -990,24 +986,64 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1020,13 +1056,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>vars:Test</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Test for technical setup</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1046,64 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>vars:Computerscientist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
+          <t>Computerscientist</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>person that studied computerscience</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>vars:Computerscience</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1116,19 +1128,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:Test</t>
+          <t>vars:Computerscience</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Computerscience</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Test for technical setup</t>
+          <t>studies of computers</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1150,26 +1162,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:Computerscientist</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Computerscientist</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>person that studied computerscience</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>vars:Computerscience</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1188,21 +1188,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:Computerscience</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Computerscience</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>studies of computers</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -2935,58 +2927,6 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/test2/variables/</t>
+          <t>http://purl.org/test/variables/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/test2/variables/</t>
+          <t>http://purl.org/test/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -745,11 +745,7 @@
           <t>dct:title</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Test2 vocabulary</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
@@ -779,11 +775,7 @@
           <t>dct:description</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Test for showcase purposes</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
@@ -813,11 +805,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hannah</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -1056,21 +1044,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:Test</t>
+          <t>vars:test</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Test for technical setup</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1090,26 +1074,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:Computerscientist</t>
+          <t>vars:working</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Computerscientist</t>
+          <t>working</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>person that studied computerscience</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>vars:Computerscience</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1128,21 +1104,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:Computerscience</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Computerscience</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>studies of computers</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
